--- a/02 CLanguage/004 全局变量 函数参数分析 if语句逆向.xlsx
+++ b/02 CLanguage/004 全局变量 函数参数分析 if语句逆向.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A71005-6D74-4CE6-8F89-925E795854DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ACE376-9347-4B62-9EBE-5BF78E14FCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>3、全局变量所占内存会一直存在，知道整个进程结束.</t>
-  </si>
-  <si>
     <t>int Function2()</t>
   </si>
   <si>
@@ -1264,6 +1261,10 @@
   <si>
     <t>edx=ecx+eax-1</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、全局变量所占内存会一直存在，直到整个进程结束.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1619,7 +1620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,25 +1756,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
@@ -1810,6 +1793,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4334,7 +4323,7 @@
   <dimension ref="B3:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4344,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -4356,7 +4345,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4382,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4412,10 +4401,10 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -4556,15 +4545,15 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:L70"/>
+  <dimension ref="B4:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4575,7 +4564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4583,29 +4572,49 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" t="s">
+      <c r="G6" s="58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="G7" t="s">
+      <c r="G7" s="58" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -4613,16 +4622,22 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="G9" t="s">
+      <c r="G9" s="58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -4630,26 +4645,26 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="G11" t="s">
+      <c r="G11" s="58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -4665,7 +4680,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4677,7 +4692,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -4685,7 +4700,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -4693,7 +4708,7 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4707,7 +4722,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -4720,7 +4735,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -4731,7 +4746,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -4750,7 +4765,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -4767,7 +4782,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -4778,7 +4793,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -4791,13 +4806,13 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -4811,18 +4826,18 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4833,7 +4848,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -4852,7 +4867,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -4860,7 +4875,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -4868,26 +4883,26 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -4901,22 +4916,22 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C57" s="8"/>
     </row>
@@ -4926,16 +4941,16 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C60" s="9"/>
     </row>
@@ -4945,7 +4960,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="9"/>
     </row>
@@ -4953,12 +4968,12 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="10"/>
     </row>
@@ -4968,17 +4983,17 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="10"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -4991,7 +5006,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -5016,14 +5031,14 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5035,14 +5050,14 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5057,13 +5072,13 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5077,14 +5092,14 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5096,19 +5111,19 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5120,12 +5135,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -5141,13 +5156,13 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5162,7 +5177,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -5172,24 +5187,24 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -5207,7 +5222,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5220,7 +5235,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5244,7 +5259,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5268,7 +5283,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -5281,7 +5296,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -5294,7 +5309,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -5307,7 +5322,7 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -5320,7 +5335,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -5333,7 +5348,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5346,7 +5361,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5370,7 +5385,7 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5388,90 +5403,90 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5480,7 +5495,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5490,10 +5505,10 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5502,57 +5517,57 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5578,39 +5593,39 @@
   <sheetData>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
         <v>112</v>
       </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
       <c r="M13" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -5619,13 +5634,13 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
         <v>114</v>
       </c>
-      <c r="G14" t="s">
-        <v>115</v>
-      </c>
       <c r="M14" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -5634,7 +5649,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -5651,132 +5666,132 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" t="s">
         <v>128</v>
-      </c>
-      <c r="H44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" t="s">
         <v>130</v>
-      </c>
-      <c r="H45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="H53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -5785,19 +5800,19 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="H55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -5806,22 +5821,22 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="H57" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s">
         <v>141</v>
-      </c>
-      <c r="K57" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -5830,19 +5845,19 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="H59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5851,19 +5866,19 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5872,19 +5887,19 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="H63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -5893,19 +5908,19 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="H65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -5914,19 +5929,19 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="H67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5935,31 +5950,31 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="H69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="H70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5968,46 +5983,46 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="H72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="H73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -6025,7 +6040,7 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -6048,7 +6063,7 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -6059,7 +6074,7 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -6070,7 +6085,7 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -6081,7 +6096,7 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -6101,7 +6116,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -6127,13 +6142,13 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K91" s="27"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
@@ -6145,7 +6160,7 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
@@ -6153,13 +6168,13 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K93" s="27"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
@@ -6167,16 +6182,16 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="I94" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K94" s="27"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
@@ -6188,7 +6203,7 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
@@ -6200,7 +6215,7 @@
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
@@ -6208,13 +6223,13 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K97" s="27"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
@@ -6223,7 +6238,7 @@
       <c r="G98" s="36"/>
       <c r="H98" s="2"/>
       <c r="I98" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J98" s="20"/>
       <c r="K98" s="27"/>
@@ -6231,7 +6246,7 @@
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
@@ -6243,7 +6258,7 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
@@ -6255,7 +6270,7 @@
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
@@ -6267,7 +6282,7 @@
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -6275,13 +6290,13 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -6293,7 +6308,7 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6302,13 +6317,13 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K104" s="27"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
@@ -6320,7 +6335,7 @@
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
@@ -6332,7 +6347,7 @@
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -6340,13 +6355,13 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K107" s="27"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -6355,13 +6370,13 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K108" s="27"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -6370,13 +6385,13 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K109" s="27"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
@@ -6388,7 +6403,7 @@
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
@@ -6396,13 +6411,13 @@
       <c r="F111" s="36"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K111" s="27"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
@@ -6411,13 +6426,13 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K112" s="27"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
@@ -6428,7 +6443,7 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
@@ -6440,7 +6455,7 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
@@ -6448,7 +6463,7 @@
       <c r="F115" s="36"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K115" s="27"/>
     </row>
@@ -6508,92 +6523,92 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6601,7 +6616,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F17" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -6612,80 +6627,80 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
         <v>141</v>
-      </c>
-      <c r="K27" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" t="s">
         <v>213</v>
-      </c>
-      <c r="H31" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6693,12 +6708,12 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6708,7 +6723,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6716,12 +6731,12 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6731,7 +6746,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6739,12 +6754,12 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -6754,7 +6769,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -6762,12 +6777,12 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -6777,7 +6792,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -6785,12 +6800,12 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6800,7 +6815,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6808,7 +6823,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="I43" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -6816,12 +6831,12 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6829,7 +6844,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="I44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -6837,15 +6852,15 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -6853,33 +6868,33 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
         <v>236</v>
-      </c>
-      <c r="H47" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -6887,15 +6902,15 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -6903,12 +6918,12 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I51" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6916,12 +6931,12 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I52" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -6931,17 +6946,17 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -6968,7 +6983,7 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
@@ -6976,13 +6991,13 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="I62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" s="27"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
@@ -6994,7 +7009,7 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
@@ -7002,13 +7017,13 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="I64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
@@ -7017,13 +7032,13 @@
       <c r="G65" s="36"/>
       <c r="I65" s="2"/>
       <c r="J65" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
@@ -7032,13 +7047,13 @@
       <c r="G66" s="36"/>
       <c r="I66" s="2"/>
       <c r="J66" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K66" s="27"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
@@ -7050,7 +7065,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
@@ -7058,13 +7073,13 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="I68" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="27"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
@@ -7073,13 +7088,13 @@
       <c r="G69" s="36"/>
       <c r="I69" s="2"/>
       <c r="J69" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K69" s="27"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
@@ -7088,13 +7103,13 @@
       <c r="G70" s="36"/>
       <c r="I70" s="2"/>
       <c r="J70" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K70" s="27"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
@@ -7102,13 +7117,13 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="I71" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K71" s="27"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -7117,13 +7132,13 @@
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K72" s="27"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -7135,7 +7150,7 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -7143,13 +7158,13 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K74" s="27"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -7158,13 +7173,13 @@
       <c r="G75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K75" s="27"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
@@ -7173,13 +7188,13 @@
       <c r="G76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K76" s="27"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
@@ -7189,12 +7204,12 @@
       <c r="I77" s="2"/>
       <c r="J77" s="20"/>
       <c r="K77" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -7209,7 +7224,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -7218,16 +7233,16 @@
       <c r="G79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K79" s="27"/>
       <c r="L79" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7237,12 +7252,12 @@
       <c r="I80" s="2"/>
       <c r="J80" s="20"/>
       <c r="K80" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7251,13 +7266,13 @@
       <c r="G81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K81" s="27"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -7267,12 +7282,12 @@
       <c r="I82" s="2"/>
       <c r="J82" s="20"/>
       <c r="K82" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
@@ -7287,7 +7302,7 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7299,7 +7314,7 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -7307,13 +7322,13 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K85" s="27"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -7325,7 +7340,7 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7337,7 +7352,7 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -7349,7 +7364,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7357,14 +7372,14 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="I89" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="27"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
@@ -7375,7 +7390,7 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
@@ -7386,7 +7401,7 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
@@ -7397,7 +7412,7 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
@@ -7408,7 +7423,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
@@ -7419,7 +7434,7 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95" s="42"/>
       <c r="D95" s="42"/>
@@ -7447,7 +7462,7 @@
   </sheetPr>
   <dimension ref="B3:L135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
@@ -7455,28 +7470,28 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>273</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
@@ -7486,7 +7501,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -7497,10 +7512,10 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -7510,7 +7525,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
@@ -7521,10 +7536,10 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>275</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>276</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7534,130 +7549,130 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" t="s">
         <v>284</v>
-      </c>
-      <c r="I36" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7665,12 +7680,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -7678,12 +7693,12 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="I41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -7691,12 +7706,12 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="I42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -7706,7 +7721,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -7714,12 +7729,12 @@
       <c r="F44" s="43"/>
       <c r="G44" s="1"/>
       <c r="H44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -7729,7 +7744,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7737,12 +7752,12 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -7752,7 +7767,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -7760,12 +7775,12 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -7775,7 +7790,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
@@ -7783,12 +7798,12 @@
       <c r="F50" s="43"/>
       <c r="G50" s="1"/>
       <c r="I50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
@@ -7801,7 +7816,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
@@ -7809,12 +7824,12 @@
       <c r="F52" s="43"/>
       <c r="G52" s="1"/>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7827,7 +7842,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7835,12 +7850,12 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7853,7 +7868,7 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
@@ -7861,12 +7876,12 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
@@ -7879,7 +7894,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
@@ -7887,12 +7902,12 @@
       <c r="F58" s="43"/>
       <c r="G58" s="1"/>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
@@ -7905,7 +7920,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -7913,12 +7928,12 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="I60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7931,7 +7946,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7939,12 +7954,12 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="I62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -7957,7 +7972,7 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -7965,12 +7980,12 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="I64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -7983,7 +7998,7 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -7991,12 +8006,12 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="I66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -8006,7 +8021,7 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8016,768 +8031,766 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="54"/>
+      <c r="B78" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="48"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="55"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="56"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="50"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="55"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="56"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="50"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="50"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="56"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="56"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="50"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="56"/>
+      <c r="B83" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="J84" s="20"/>
+      <c r="K84" s="50"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="47" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="J84" s="47"/>
-      <c r="K84" s="56"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="57" t="s">
+      <c r="J85" s="20"/>
+      <c r="K85" s="50"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="47" t="s">
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="J85" s="47"/>
-      <c r="K85" s="56"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="47" t="s">
+      <c r="J86" s="20"/>
+      <c r="K86" s="50"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="50"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="50"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J89" s="20"/>
+      <c r="K89" s="50"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="J90" s="20"/>
+      <c r="K90" s="50"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="J91" s="20"/>
+      <c r="K91" s="50"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="50"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="50"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="J86" s="47"/>
-      <c r="K86" s="56"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="56"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="56"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="J89" s="47"/>
-      <c r="K89" s="56"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="J90" s="47"/>
-      <c r="K90" s="56"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="J91" s="47"/>
-      <c r="K91" s="56"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="56"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="56"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="55" t="s">
+      <c r="J94" s="2"/>
+      <c r="K94" s="50"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="47" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="52"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="50"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="J94" s="45"/>
-      <c r="K94" s="56"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="58"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="55" t="s">
+      <c r="J97" s="20"/>
+      <c r="K97" s="53"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="56"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="47" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="J97" s="47"/>
-      <c r="K97" s="59"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="55" t="s">
+      <c r="J98" s="20"/>
+      <c r="K98" s="53"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="K99" s="53"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="J100" s="20"/>
+      <c r="K100" s="53"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="J98" s="47"/>
-      <c r="K98" s="59"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="K99" s="59"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="47" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="J100" s="47"/>
-      <c r="K100" s="59"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="K101" s="53"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="K102" s="53"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="K101" s="59"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="47" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="J102" s="47"/>
-      <c r="K102" s="59"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="K103" s="53"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="J104" s="20"/>
+      <c r="K104" s="53"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="K105" s="53"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="20"/>
+      <c r="K106" s="53"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="J107" s="20"/>
+      <c r="K107" s="53"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="K103" s="59"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="J104" s="47"/>
-      <c r="K104" s="59"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="K105" s="59"/>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J106" s="47"/>
-      <c r="K106" s="59"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="47" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="K108" s="50"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="50"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="50"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="50"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="50"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="50"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="50"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="50"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="50"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="J107" s="47"/>
-      <c r="K107" s="59"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="56"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="56"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="56"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="56"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="56"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="56"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="56"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="56"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="56"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="55" t="s">
+      <c r="J117" s="34"/>
+      <c r="K117" s="50"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="50"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="50"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="C117" s="50"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="J117" s="50"/>
-      <c r="K117" s="56"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="56"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="56"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="55" t="s">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="50"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="56"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="57" t="s">
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="50"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="56"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="57" t="s">
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="50"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="56"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="57" t="s">
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="50"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="56"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="57" t="s">
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="50"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="56"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="57" t="s">
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="50"/>
+    </row>
+    <row r="126" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C125" s="46"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="56"/>
-    </row>
-    <row r="126" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="63"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
